--- a/biology/Mycologie/Clitocybe_rivulosa/Clitocybe_rivulosa.xlsx
+++ b/biology/Mycologie/Clitocybe_rivulosa/Clitocybe_rivulosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clitocybe rivulosa, longtemps distingué de son actuel synonyme[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clitocybe rivulosa, longtemps distingué de son actuel synonyme
 Clitocybe dealbata, ou de ses noms en français, le clitocybe du bord des routes, clitocybe blanc d'ivoire ou clitocybe blanchi, est un champignon vénéneux classé dans la division des Basidiomycota agaricomycètes du genre Clitocybe dans la famille des Tricholomataceae.
 </t>
         </is>
@@ -514,46 +526,123 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Binôme actuel
-Clitocybe rivulosa (Pers.) P. Kumm. 1871 Führ. Pilzk. (Zerbst): 122 (1871) 
-Basionyme
-Agaricus rivulosus Persoon (1801)[2]Sanctionné par Fries (1821)
-Synonymes
-Agaricus rivulosus Pers. 1801 (synonyme)
+          <t>Binôme actuel</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clitocybe rivulosa (Pers.) P. Kumm. 1871 Führ. Pilzk. (Zerbst): 122 (1871) 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Clitocybe_rivulosa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clitocybe_rivulosa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie et Nomenclature</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Basionyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agaricus rivulosus Persoon (1801)Sanctionné par Fries (1821)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clitocybe_rivulosa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clitocybe_rivulosa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie et Nomenclature</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Agaricus rivulosus Pers. 1801 (synonyme)
 Agaricus rivulosus var. neptuneus Berk. &amp; Broome 1883 (synonyme)
 Clitocybe rivulosa var. neptunea (Berk. &amp; Broome) Massee 1893 (synonyme)
-Omphalia rivulosa (Persoon) Quélet (1886 [3]), (synonyme)
+Omphalia rivulosa (Persoon) Quélet (1886 ), (synonyme)
 Clitocybe dealbata (? synonyme)
 Clitocybe dealbata var. minor Cooke 1883 (? synonyme)
 Clitocybe dealbata var. rivulosa (Pers.) P. Kumm. 1871 (synonyme)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Clitocybe_rivulosa</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Clitocybe_rivulosa</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore (chapeau) : de 2 à 6 cm, grégaire, annulaire, convexe puis aplati et souvent déprimé, d'aspect satiné ou givré.
 Marge : marge enroulée devenant ondulée, 
@@ -565,62 +654,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Clitocybe_rivulosa</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Clitocybe_rivulosa</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">À partir du début de l'été et jusqu'à l'automne, prairies, pelouses, parcs ou lisières des bois, en bordure de chemins ou de fossés.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Clitocybe_rivulosa</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Clitocybe_rivulosa</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Confusion possible avec l'entolome livide, Entoloma lividum, également toxique, mais aussi trois comestibles : le Tricholome colombette, Clitopilus prunulus et moins probablement le tricholome de la Saint-Georges, ce dernier se développant normalement au printemps. Il se développe généralement en troupes de plusieurs individus, parfois en "ronds de sorcières", sur les surfaces herbues en général et fréquemment sur les pelouses entretenues.
@@ -628,33 +721,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Clitocybe_rivulosa</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Clitocybe_rivulosa</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Facilement confondu avec un excellent comestible (Clitopilus prunulus) ou avec d'autres espèces (Marasme des Oréades), ce champignon est très dangereux. Il est malheureusement fréquent est pousse dans les parcs, gazons et prairies, ce qui augmente le risque d'accidents pour les enfants et les animaux domestiques[4]. Il est un toxique sévère contenant de la muscarine, agissant dans les premières heures de sa consommation, parfois au bout de trente minutes seulement. Sueurs, vomissements, salivation, diarrhée et ralentissement cardiaque sont les principaux symptômes qui exigent des soins rapides : réhydratation et injection d'atropine afin de soutenir le rythme cardiaque. Sa toxicité peut s'avérer mortelle pour les personnes fragilisées. 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facilement confondu avec un excellent comestible (Clitopilus prunulus) ou avec d'autres espèces (Marasme des Oréades), ce champignon est très dangereux. Il est malheureusement fréquent est pousse dans les parcs, gazons et prairies, ce qui augmente le risque d'accidents pour les enfants et les animaux domestiques. Il est un toxique sévère contenant de la muscarine, agissant dans les premières heures de sa consommation, parfois au bout de trente minutes seulement. Sueurs, vomissements, salivation, diarrhée et ralentissement cardiaque sont les principaux symptômes qui exigent des soins rapides : réhydratation et injection d'atropine afin de soutenir le rythme cardiaque. Sa toxicité peut s'avérer mortelle pour les personnes fragilisées. 
 </t>
         </is>
       </c>
